--- a/xlsx/Ford_intext.xlsx
+++ b/xlsx/Ford_intext.xlsx
@@ -29,7 +29,7 @@
     <t>福特汽车</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Ford</t>
+    <t>政策_政策_混合动力车辆_Ford</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E7%A6%8F%E7%89%B9</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%BE%B7</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%C2%B7%E9%A6%AC%E5%A4%9A%E5%85%8B%E6%96%AF%C2%B7%E7%A6%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>福特·馬多克斯·福特</t>
+    <t>福特·马多克斯·福特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9F%8F%E7%89%B9%C2%B7%E7%A6%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>羅柏特·福特</t>
+    <t>罗柏特·福特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9</t>
